--- a/zosimomontiel User Info.xlsx
+++ b/zosimomontiel User Info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>Oaxaca</t>
+    <t>zosimo.montiel@sspo.gob.mx</t>
   </si>
   <si>
     <t>User</t>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>zosimo.montiel@sspo.gob.mx</t>
   </si>
   <si>
     <t>¿Ha accedido al curso?</t>
@@ -437,23 +434,23 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
